--- a/data/pdfs/cleaned_data.xlsx
+++ b/data/pdfs/cleaned_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juust\projects\elon-musks-texts\data\pdfs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EE5834-AF32-41F2-B40E-536463FA6EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD79BE23-D028-4F0F-99AC-EF08071F28BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2425,9 +2425,6 @@
     <t>you are the hero Gotham needs - hell F'ing yes!</t>
   </si>
   <si>
-    <t>2022-04-141 11:31:08 (CDT)</t>
-  </si>
-  <si>
     <t>Loved "ELON! You buying twitter or offering to buy twitter Wow! Now Don't you think we should sit down together face to face this is as the kids of today say a "gangsta move" I don't know know how shareholders turn this down Like I said you are not like the other kids in the class "</t>
   </si>
   <si>
@@ -2455,9 +2452,6 @@
     <t>The perfect counter</t>
   </si>
   <si>
-    <t>2022-04-141 12:00:48 (CDT)</t>
-  </si>
-  <si>
     <t>You could easily clean up bots and spam and make the service viable for many more users - Removing bots and spam is a lot less complicated than what the Tesla self driving team is doing (based on hearing the last edge case meeting)</t>
   </si>
   <si>
@@ -4450,9 +4444,6 @@
     <t>2022-05-02 11:43:04 (CDT)</t>
   </si>
   <si>
-    <t>When you're private its fairly easy to do, buti think current shareholders have to re-up</t>
-  </si>
-  <si>
     <t>2022-05-02 11:47:16 (CDT)</t>
   </si>
   <si>
@@ -4850,6 +4841,15 @@
   </si>
   <si>
     <t>You're most welcome. Great to talk!</t>
+  </si>
+  <si>
+    <t>2022-04-14 12:00:48 (CDT)</t>
+  </si>
+  <si>
+    <t>2022-04-14 11:31:08 (CDT)</t>
+  </si>
+  <si>
+    <t>When you're private its fairly easy to do, but I think current shareholders have to re-up</t>
   </si>
 </sst>
 </file>
@@ -5186,8 +5186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F758"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C705" workbookViewId="0">
-      <selection activeCell="H709" activeCellId="1" sqref="D710 H709"/>
+    <sheetView tabSelected="1" topLeftCell="A686" workbookViewId="0">
+      <selection activeCell="B696" sqref="B696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7464,7 +7464,7 @@
         <v>265</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -8704,7 +8704,7 @@
         <v>389</v>
       </c>
       <c r="C176" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="D176" t="s">
         <v>420</v>
@@ -12615,10 +12615,10 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B372" t="s">
         <v>799</v>
-      </c>
-      <c r="B372" t="s">
-        <v>800</v>
       </c>
       <c r="C372" t="s">
         <v>14</v>
@@ -12635,16 +12635,16 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
+        <v>800</v>
+      </c>
+      <c r="B373" t="s">
         <v>801</v>
       </c>
-      <c r="B373" t="s">
+      <c r="C373" t="s">
         <v>802</v>
       </c>
-      <c r="C373" t="s">
+      <c r="D373" t="s">
         <v>803</v>
-      </c>
-      <c r="D373" t="s">
-        <v>804</v>
       </c>
       <c r="E373" t="s">
         <v>10</v>
@@ -12655,16 +12655,16 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
+        <v>804</v>
+      </c>
+      <c r="B374" t="s">
         <v>805</v>
       </c>
-      <c r="B374" t="s">
-        <v>806</v>
-      </c>
       <c r="C374" t="s">
+        <v>802</v>
+      </c>
+      <c r="D374" t="s">
         <v>803</v>
-      </c>
-      <c r="D374" t="s">
-        <v>804</v>
       </c>
       <c r="E374" t="s">
         <v>10</v>
@@ -12675,16 +12675,16 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
+        <v>806</v>
+      </c>
+      <c r="B375" t="s">
         <v>807</v>
       </c>
-      <c r="B375" t="s">
-        <v>808</v>
-      </c>
       <c r="C375" t="s">
+        <v>802</v>
+      </c>
+      <c r="D375" t="s">
         <v>803</v>
-      </c>
-      <c r="D375" t="s">
-        <v>804</v>
       </c>
       <c r="E375" t="s">
         <v>10</v>
@@ -12695,16 +12695,16 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>809</v>
+        <v>1605</v>
       </c>
       <c r="B376" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C376" t="s">
+        <v>802</v>
+      </c>
+      <c r="D376" t="s">
         <v>803</v>
-      </c>
-      <c r="D376" t="s">
-        <v>804</v>
       </c>
       <c r="E376" t="s">
         <v>10</v>
@@ -12715,16 +12715,16 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B377" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C377" t="s">
+        <v>802</v>
+      </c>
+      <c r="D377" t="s">
         <v>803</v>
-      </c>
-      <c r="D377" t="s">
-        <v>804</v>
       </c>
       <c r="E377" t="s">
         <v>10</v>
@@ -12735,16 +12735,16 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B378" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C378" t="s">
+        <v>802</v>
+      </c>
+      <c r="D378" t="s">
         <v>803</v>
-      </c>
-      <c r="D378" t="s">
-        <v>804</v>
       </c>
       <c r="E378" t="s">
         <v>10</v>
@@ -12755,10 +12755,10 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B379" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C379" t="s">
         <v>196</v>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B380" t="s">
         <v>30</v>
@@ -12795,10 +12795,10 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B381" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C381" t="s">
         <v>239</v>
@@ -12815,10 +12815,10 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B382" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C382" t="s">
         <v>57</v>
@@ -12835,16 +12835,16 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
+        <v>820</v>
+      </c>
+      <c r="B383" t="s">
+        <v>821</v>
+      </c>
+      <c r="C383" t="s">
         <v>822</v>
       </c>
-      <c r="B383" t="s">
+      <c r="D383" t="s">
         <v>823</v>
-      </c>
-      <c r="C383" t="s">
-        <v>824</v>
-      </c>
-      <c r="D383" t="s">
-        <v>825</v>
       </c>
       <c r="E383" t="s">
         <v>10</v>
@@ -12855,16 +12855,16 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
+        <v>824</v>
+      </c>
+      <c r="B384" t="s">
+        <v>825</v>
+      </c>
+      <c r="C384" t="s">
         <v>826</v>
       </c>
-      <c r="B384" t="s">
+      <c r="D384" t="s">
         <v>827</v>
-      </c>
-      <c r="C384" t="s">
-        <v>828</v>
-      </c>
-      <c r="D384" t="s">
-        <v>829</v>
       </c>
       <c r="E384" t="s">
         <v>102</v>
@@ -12875,16 +12875,16 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B385" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C385" t="s">
         <v>14</v>
       </c>
       <c r="D385" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E385" t="s">
         <v>10</v>
@@ -12895,16 +12895,16 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
+        <v>830</v>
+      </c>
+      <c r="B386" t="s">
+        <v>831</v>
+      </c>
+      <c r="C386" t="s">
         <v>832</v>
       </c>
-      <c r="B386" t="s">
+      <c r="D386" t="s">
         <v>833</v>
-      </c>
-      <c r="C386" t="s">
-        <v>834</v>
-      </c>
-      <c r="D386" t="s">
-        <v>835</v>
       </c>
       <c r="E386" t="s">
         <v>10</v>
@@ -12915,16 +12915,16 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B387" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C387" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D387" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E387" t="s">
         <v>10</v>
@@ -12935,19 +12935,19 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
+        <v>836</v>
+      </c>
+      <c r="B388" t="s">
+        <v>837</v>
+      </c>
+      <c r="C388" t="s">
         <v>838</v>
       </c>
-      <c r="B388" t="s">
+      <c r="D388" t="s">
+        <v>803</v>
+      </c>
+      <c r="E388" t="s">
         <v>839</v>
-      </c>
-      <c r="C388" t="s">
-        <v>840</v>
-      </c>
-      <c r="D388" t="s">
-        <v>804</v>
-      </c>
-      <c r="E388" t="s">
-        <v>841</v>
       </c>
       <c r="F388" t="s">
         <v>11</v>
@@ -12955,16 +12955,16 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B389" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C389" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D389" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E389" t="s">
         <v>10</v>
@@ -12975,16 +12975,16 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B390" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C390" t="s">
-        <v>840</v>
+        <v>14</v>
       </c>
       <c r="D390" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E390" t="s">
         <v>10</v>
@@ -12995,16 +12995,16 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B391" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C391" t="s">
-        <v>840</v>
+        <v>14</v>
       </c>
       <c r="D391" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E391" t="s">
         <v>10</v>
@@ -13015,16 +13015,16 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B392" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C392" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D392" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E392" t="s">
         <v>10</v>
@@ -13035,16 +13035,16 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
+        <v>846</v>
+      </c>
+      <c r="B393" t="s">
         <v>848</v>
       </c>
-      <c r="B393" t="s">
-        <v>850</v>
-      </c>
       <c r="C393" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D393" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E393" t="s">
         <v>10</v>
@@ -13055,16 +13055,16 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B394" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C394" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D394" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E394" t="s">
         <v>10</v>
@@ -13075,16 +13075,16 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B395" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C395" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D395" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E395" t="s">
         <v>10</v>
@@ -13095,16 +13095,16 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B396" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C396" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D396" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E396" t="s">
         <v>10</v>
@@ -13115,16 +13115,16 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B397" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C397" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D397" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E397" t="s">
         <v>10</v>
@@ -13135,16 +13135,16 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B398" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C398" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D398" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E398" t="s">
         <v>10</v>
@@ -13155,16 +13155,16 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B399" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C399" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D399" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E399" t="s">
         <v>10</v>
@@ -13175,16 +13175,16 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B400" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C400" t="s">
-        <v>840</v>
+        <v>14</v>
       </c>
       <c r="D400" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E400" t="s">
         <v>10</v>
@@ -13195,16 +13195,16 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B401" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C401" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D401" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E401" t="s">
         <v>10</v>
@@ -13215,16 +13215,16 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B402" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C402" t="s">
-        <v>840</v>
+        <v>14</v>
       </c>
       <c r="D402" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E402" t="s">
         <v>10</v>
@@ -13235,16 +13235,16 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B403" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C403" t="s">
-        <v>840</v>
+        <v>14</v>
       </c>
       <c r="D403" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E403" t="s">
         <v>10</v>
@@ -13255,16 +13255,16 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B404" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C404" t="s">
         <v>57</v>
       </c>
       <c r="D404" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E404" t="s">
         <v>10</v>
@@ -13275,16 +13275,16 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B405" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C405" t="s">
+        <v>802</v>
+      </c>
+      <c r="D405" t="s">
         <v>803</v>
-      </c>
-      <c r="D405" t="s">
-        <v>804</v>
       </c>
       <c r="E405" t="s">
         <v>10</v>
@@ -13295,16 +13295,16 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B406" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C406" t="s">
+        <v>802</v>
+      </c>
+      <c r="D406" t="s">
         <v>803</v>
-      </c>
-      <c r="D406" t="s">
-        <v>804</v>
       </c>
       <c r="E406" t="s">
         <v>10</v>
@@ -13315,16 +13315,16 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B407" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C407" t="s">
+        <v>802</v>
+      </c>
+      <c r="D407" t="s">
         <v>803</v>
-      </c>
-      <c r="D407" t="s">
-        <v>804</v>
       </c>
       <c r="E407" t="s">
         <v>10</v>
@@ -13335,16 +13335,16 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B408" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C408" t="s">
         <v>14</v>
       </c>
       <c r="D408" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E408" t="s">
         <v>10</v>
@@ -13355,16 +13355,16 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B409" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C409" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D409" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E409" t="s">
         <v>10</v>
@@ -13375,10 +13375,10 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B410" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C410" t="s">
         <v>125</v>
@@ -13395,10 +13395,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B411" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C411" t="s">
         <v>14</v>
@@ -13415,16 +13415,16 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C412" t="s">
+        <v>802</v>
+      </c>
+      <c r="D412" t="s">
         <v>803</v>
-      </c>
-      <c r="D412" t="s">
-        <v>804</v>
       </c>
       <c r="E412" t="s">
         <v>10</v>
@@ -13435,16 +13435,16 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
+        <v>885</v>
+      </c>
+      <c r="B413" t="s">
         <v>887</v>
       </c>
-      <c r="B413" t="s">
-        <v>889</v>
-      </c>
       <c r="C413" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D413" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E413" t="s">
         <v>10</v>
@@ -13455,16 +13455,16 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B414" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C414" t="s">
+        <v>802</v>
+      </c>
+      <c r="D414" t="s">
         <v>803</v>
-      </c>
-      <c r="D414" t="s">
-        <v>804</v>
       </c>
       <c r="E414" t="s">
         <v>10</v>
@@ -13475,16 +13475,16 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B415" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C415" t="s">
+        <v>802</v>
+      </c>
+      <c r="D415" t="s">
         <v>803</v>
-      </c>
-      <c r="D415" t="s">
-        <v>804</v>
       </c>
       <c r="E415" t="s">
         <v>47</v>
@@ -13495,16 +13495,16 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B416" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C416" t="s">
         <v>57</v>
       </c>
       <c r="D416" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E416" t="s">
         <v>10</v>
@@ -13515,10 +13515,10 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B417" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C417" t="s">
         <v>196</v>
@@ -13535,10 +13535,10 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B418" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C418" t="s">
         <v>57</v>
@@ -13555,10 +13555,10 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B419" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C419" t="s">
         <v>57</v>
@@ -13575,10 +13575,10 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B420" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C420" t="s">
         <v>14</v>
@@ -13595,10 +13595,10 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B421" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C421" t="s">
         <v>14</v>
@@ -13615,16 +13615,16 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B422" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C422" t="s">
         <v>57</v>
       </c>
       <c r="D422" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E422" t="s">
         <v>10</v>
@@ -13635,10 +13635,10 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B423" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C423" t="s">
         <v>180</v>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B424" t="s">
         <v>501</v>
@@ -13675,10 +13675,10 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B425" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C425" t="s">
         <v>57</v>
@@ -13695,10 +13695,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B426" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C426" t="s">
         <v>57</v>
@@ -13715,10 +13715,10 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B427" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C427" t="s">
         <v>180</v>
@@ -13735,13 +13735,13 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
+        <v>916</v>
+      </c>
+      <c r="B428" t="s">
+        <v>917</v>
+      </c>
+      <c r="C428" t="s">
         <v>918</v>
-      </c>
-      <c r="B428" t="s">
-        <v>919</v>
-      </c>
-      <c r="C428" t="s">
-        <v>920</v>
       </c>
       <c r="D428" t="s">
         <v>413</v>
@@ -13755,10 +13755,10 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B429" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C429" t="s">
         <v>14</v>
@@ -13775,13 +13775,13 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
+        <v>921</v>
+      </c>
+      <c r="B430" t="s">
+        <v>922</v>
+      </c>
+      <c r="C430" t="s">
         <v>923</v>
-      </c>
-      <c r="B430" t="s">
-        <v>924</v>
-      </c>
-      <c r="C430" t="s">
-        <v>925</v>
       </c>
       <c r="D430" t="s">
         <v>181</v>
@@ -13795,10 +13795,10 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B431" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C431" t="s">
         <v>14</v>
@@ -13815,13 +13815,13 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
+        <v>926</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="C432" t="s">
         <v>928</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="C432" t="s">
-        <v>930</v>
       </c>
       <c r="D432" t="s">
         <v>413</v>
@@ -13835,13 +13835,13 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B433" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C433" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D433" t="s">
         <v>413</v>
@@ -13855,13 +13855,13 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B434" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C434" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D434" t="s">
         <v>413</v>
@@ -13875,13 +13875,13 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B435" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C435" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D435" t="s">
         <v>413</v>
@@ -13895,10 +13895,10 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B436" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C436" t="s">
         <v>57</v>
@@ -13915,10 +13915,10 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B437" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C437" t="s">
         <v>14</v>
@@ -13935,10 +13935,10 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B438" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C438" t="s">
         <v>57</v>
@@ -13955,10 +13955,10 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B439" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C439" t="s">
         <v>57</v>
@@ -13975,13 +13975,13 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B440" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C440" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D440" t="s">
         <v>413</v>
@@ -13995,13 +13995,13 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C441" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D441" t="s">
         <v>413</v>
@@ -14015,7 +14015,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B442" t="s">
         <v>144</v>
@@ -14035,13 +14035,13 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B443" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C443" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D443" t="s">
         <v>413</v>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B444" t="s">
         <v>54</v>
@@ -14075,10 +14075,10 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B445" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C445" t="s">
         <v>362</v>
@@ -14095,7 +14095,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B446" t="s">
         <v>144</v>
@@ -14115,10 +14115,10 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B447" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C447" t="s">
         <v>57</v>
@@ -14135,13 +14135,13 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B448" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C448" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D448" t="s">
         <v>413</v>
@@ -14155,13 +14155,13 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B449" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C449" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D449" t="s">
         <v>413</v>
@@ -14175,10 +14175,10 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B450" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C450" t="s">
         <v>57</v>
@@ -14195,16 +14195,16 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
+        <v>962</v>
+      </c>
+      <c r="B451" t="s">
+        <v>963</v>
+      </c>
+      <c r="C451" t="s">
         <v>964</v>
       </c>
-      <c r="B451" t="s">
+      <c r="D451" t="s">
         <v>965</v>
-      </c>
-      <c r="C451" t="s">
-        <v>966</v>
-      </c>
-      <c r="D451" t="s">
-        <v>967</v>
       </c>
       <c r="E451" t="s">
         <v>10</v>
@@ -14215,16 +14215,16 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B452" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C452" t="s">
         <v>57</v>
       </c>
       <c r="D452" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E452" t="s">
         <v>10</v>
@@ -14235,16 +14235,16 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B453" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C453" t="s">
         <v>14</v>
       </c>
       <c r="D453" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E453" t="s">
         <v>10</v>
@@ -14255,10 +14255,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B454" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C454" t="s">
         <v>14</v>
@@ -14275,10 +14275,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B455" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C455" t="s">
         <v>57</v>
@@ -14295,10 +14295,10 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B456" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C456" t="s">
         <v>196</v>
@@ -14315,10 +14315,10 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B457" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C457" t="s">
         <v>470</v>
@@ -14335,10 +14335,10 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B458" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C458" t="s">
         <v>57</v>
@@ -14355,7 +14355,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B459" t="s">
         <v>30</v>
@@ -14375,10 +14375,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B460" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C460" t="s">
         <v>57</v>
@@ -14395,10 +14395,10 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B461" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C461" t="s">
         <v>196</v>
@@ -14415,10 +14415,10 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B462" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C462" t="s">
         <v>196</v>
@@ -14435,7 +14435,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B463" t="s">
         <v>258</v>
@@ -14455,10 +14455,10 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B464" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C464" t="s">
         <v>14</v>
@@ -14475,10 +14475,10 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B465" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C465" t="s">
         <v>196</v>
@@ -14495,16 +14495,16 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B466" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C466" t="s">
         <v>57</v>
       </c>
       <c r="D466" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E466" t="s">
         <v>10</v>
@@ -14515,16 +14515,16 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B467" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C467" t="s">
+        <v>802</v>
+      </c>
+      <c r="D467" t="s">
         <v>803</v>
-      </c>
-      <c r="D467" t="s">
-        <v>804</v>
       </c>
       <c r="E467" t="s">
         <v>10</v>
@@ -14535,16 +14535,16 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B468" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C468" t="s">
+        <v>802</v>
+      </c>
+      <c r="D468" t="s">
         <v>803</v>
-      </c>
-      <c r="D468" t="s">
-        <v>804</v>
       </c>
       <c r="E468" t="s">
         <v>10</v>
@@ -14555,16 +14555,16 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B469" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C469" t="s">
+        <v>802</v>
+      </c>
+      <c r="D469" t="s">
         <v>803</v>
-      </c>
-      <c r="D469" t="s">
-        <v>804</v>
       </c>
       <c r="E469" t="s">
         <v>10</v>
@@ -14575,16 +14575,16 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B470" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C470" t="s">
+        <v>802</v>
+      </c>
+      <c r="D470" t="s">
         <v>803</v>
-      </c>
-      <c r="D470" t="s">
-        <v>804</v>
       </c>
       <c r="E470" t="s">
         <v>10</v>
@@ -14595,16 +14595,16 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B471" t="s">
         <v>132</v>
       </c>
       <c r="C471" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D471" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E471" t="s">
         <v>10</v>
@@ -14615,16 +14615,16 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B472" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C472" t="s">
+        <v>802</v>
+      </c>
+      <c r="D472" t="s">
         <v>803</v>
-      </c>
-      <c r="D472" t="s">
-        <v>804</v>
       </c>
       <c r="E472" t="s">
         <v>10</v>
@@ -14635,16 +14635,16 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B473" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C473" t="s">
+        <v>802</v>
+      </c>
+      <c r="D473" t="s">
         <v>803</v>
-      </c>
-      <c r="D473" t="s">
-        <v>804</v>
       </c>
       <c r="E473" t="s">
         <v>10</v>
@@ -14655,16 +14655,16 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B474" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C474" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D474" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E474" t="s">
         <v>10</v>
@@ -14675,16 +14675,16 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B475" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C475" t="s">
+        <v>802</v>
+      </c>
+      <c r="D475" t="s">
         <v>803</v>
-      </c>
-      <c r="D475" t="s">
-        <v>804</v>
       </c>
       <c r="E475" t="s">
         <v>10</v>
@@ -14695,16 +14695,16 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B476" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C476" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D476" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E476" t="s">
         <v>10</v>
@@ -14715,16 +14715,16 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B477" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C477" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D477" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E477" t="s">
         <v>10</v>
@@ -14735,16 +14735,16 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D478" t="s">
         <v>1019</v>
-      </c>
-      <c r="B478" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C478" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D478" t="s">
-        <v>1021</v>
       </c>
       <c r="E478" t="s">
         <v>10</v>
@@ -14755,16 +14755,16 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B479" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C479" t="s">
+        <v>802</v>
+      </c>
+      <c r="D479" t="s">
         <v>803</v>
-      </c>
-      <c r="D479" t="s">
-        <v>804</v>
       </c>
       <c r="E479" t="s">
         <v>10</v>
@@ -14775,16 +14775,16 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B480" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C480" t="s">
+        <v>802</v>
+      </c>
+      <c r="D480" t="s">
         <v>803</v>
-      </c>
-      <c r="D480" t="s">
-        <v>804</v>
       </c>
       <c r="E480" t="s">
         <v>102</v>
@@ -14795,16 +14795,16 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B481" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C481" t="s">
         <v>14</v>
       </c>
       <c r="D481" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E481" t="s">
         <v>10</v>
@@ -14815,16 +14815,16 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B482" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C482" t="s">
+        <v>802</v>
+      </c>
+      <c r="D482" t="s">
         <v>803</v>
-      </c>
-      <c r="D482" t="s">
-        <v>804</v>
       </c>
       <c r="E482" t="s">
         <v>10</v>
@@ -14835,16 +14835,16 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B483" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C483" t="s">
+        <v>802</v>
+      </c>
+      <c r="D483" t="s">
         <v>803</v>
-      </c>
-      <c r="D483" t="s">
-        <v>804</v>
       </c>
       <c r="E483" t="s">
         <v>10</v>
@@ -14855,16 +14855,16 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B484" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C484" t="s">
+        <v>802</v>
+      </c>
+      <c r="D484" t="s">
         <v>803</v>
-      </c>
-      <c r="D484" t="s">
-        <v>804</v>
       </c>
       <c r="E484" t="s">
         <v>10</v>
@@ -14875,16 +14875,16 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B485" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C485" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D485" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E485" t="s">
         <v>10</v>
@@ -14895,16 +14895,16 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B486" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C486" t="s">
+        <v>802</v>
+      </c>
+      <c r="D486" t="s">
         <v>803</v>
-      </c>
-      <c r="D486" t="s">
-        <v>804</v>
       </c>
       <c r="E486" t="s">
         <v>10</v>
@@ -14915,16 +14915,16 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B487" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C487" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D487" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E487" t="s">
         <v>10</v>
@@ -14935,16 +14935,16 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B488" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C488" t="s">
+        <v>802</v>
+      </c>
+      <c r="D488" t="s">
         <v>803</v>
-      </c>
-      <c r="D488" t="s">
-        <v>804</v>
       </c>
       <c r="E488" t="s">
         <v>10</v>
@@ -14955,16 +14955,16 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C489" t="s">
+        <v>802</v>
+      </c>
+      <c r="D489" t="s">
         <v>803</v>
-      </c>
-      <c r="D489" t="s">
-        <v>804</v>
       </c>
       <c r="E489" t="s">
         <v>10</v>
@@ -14975,16 +14975,16 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B490" t="s">
         <v>1042</v>
       </c>
-      <c r="B490" t="s">
-        <v>1044</v>
-      </c>
       <c r="C490" t="s">
+        <v>802</v>
+      </c>
+      <c r="D490" t="s">
         <v>803</v>
-      </c>
-      <c r="D490" t="s">
-        <v>804</v>
       </c>
       <c r="E490" t="s">
         <v>10</v>
@@ -14995,16 +14995,16 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B491" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C491" t="s">
         <v>57</v>
       </c>
       <c r="D491" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E491" t="s">
         <v>10</v>
@@ -15015,16 +15015,16 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B492" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C492" t="s">
         <v>1046</v>
       </c>
-      <c r="C492" t="s">
-        <v>1048</v>
-      </c>
       <c r="D492" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E492" t="s">
         <v>10</v>
@@ -15035,16 +15035,16 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C493" t="s">
         <v>1049</v>
       </c>
-      <c r="B493" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C493" t="s">
-        <v>1051</v>
-      </c>
       <c r="D493" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E493" t="s">
         <v>10</v>
@@ -15055,16 +15055,16 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B494" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C494" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D494" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E494" t="s">
         <v>47</v>
@@ -15075,16 +15075,16 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B495" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C495" t="s">
         <v>57</v>
       </c>
       <c r="D495" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E495" t="s">
         <v>10</v>
@@ -15095,10 +15095,10 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B496" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C496" t="s">
         <v>196</v>
@@ -15115,10 +15115,10 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B497" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C497" t="s">
         <v>57</v>
@@ -15135,10 +15135,10 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B498" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C498" t="s">
         <v>196</v>
@@ -15155,10 +15155,10 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B499" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C499" t="s">
         <v>57</v>
@@ -15175,10 +15175,10 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B500" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C500" t="s">
         <v>196</v>
@@ -15195,10 +15195,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B501" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C501" t="s">
         <v>57</v>
@@ -15215,10 +15215,10 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B502" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C502" t="s">
         <v>196</v>
@@ -15235,13 +15235,13 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B503" t="s">
         <v>30</v>
       </c>
       <c r="C503" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D503" t="s">
         <v>197</v>
@@ -15255,13 +15255,13 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B504" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C504" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D504" t="s">
         <v>181</v>
@@ -15275,13 +15275,13 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="B505" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C505" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D505" t="s">
         <v>181</v>
@@ -15295,13 +15295,13 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B506" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C506" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D506" t="s">
         <v>682</v>
@@ -15315,13 +15315,13 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B507" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C507" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D507" t="s">
         <v>682</v>
@@ -15335,13 +15335,13 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="B508" t="s">
         <v>144</v>
       </c>
       <c r="C508" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D508" t="s">
         <v>682</v>
@@ -15355,13 +15355,13 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B509" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C509" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D509" t="s">
         <v>682</v>
@@ -15375,7 +15375,7 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B510" t="s">
         <v>144</v>
@@ -15395,13 +15395,13 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C511" t="s">
         <v>1080</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C511" t="s">
-        <v>1082</v>
       </c>
       <c r="D511" t="s">
         <v>219</v>
@@ -15415,10 +15415,10 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B512" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C512" t="s">
         <v>57</v>
@@ -15435,10 +15435,10 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B513" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C513" t="s">
         <v>196</v>
@@ -15455,10 +15455,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B514" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C514" t="s">
         <v>196</v>
@@ -15475,10 +15475,10 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B515" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C515" t="s">
         <v>196</v>
@@ -15495,7 +15495,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B516" t="s">
         <v>144</v>
@@ -15515,13 +15515,13 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B517" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C517" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D517" t="s">
         <v>209</v>
@@ -15535,10 +15535,10 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B518" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C518" t="s">
         <v>57</v>
@@ -15555,10 +15555,10 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B519" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C519" t="s">
         <v>202</v>
@@ -15575,13 +15575,13 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B520" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C520" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D520" t="s">
         <v>209</v>
@@ -15595,10 +15595,10 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B521" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C521" t="s">
         <v>139</v>
@@ -15615,10 +15615,10 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B522" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C522" t="s">
         <v>196</v>
@@ -15635,13 +15635,13 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B523" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C523" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D523" t="s">
         <v>197</v>
@@ -15655,13 +15655,13 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B524" t="s">
         <v>739</v>
       </c>
       <c r="C524" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D524" t="s">
         <v>197</v>
@@ -15675,10 +15675,10 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B525" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C525" t="s">
         <v>57</v>
@@ -15695,10 +15695,10 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B526" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C526" t="s">
         <v>196</v>
@@ -15715,10 +15715,10 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B527" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C527" t="s">
         <v>57</v>
@@ -15735,10 +15735,10 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B528" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C528" t="s">
         <v>14</v>
@@ -15755,10 +15755,10 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B529" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C529" t="s">
         <v>139</v>
@@ -15775,13 +15775,13 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B530" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C530" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D530" t="s">
         <v>140</v>
@@ -15795,16 +15795,16 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B531" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C531" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D531" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E531" t="s">
         <v>10</v>
@@ -15815,16 +15815,16 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B532" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C532" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D532" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E532" t="s">
         <v>10</v>
@@ -15835,7 +15835,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B533" t="s">
         <v>132</v>
@@ -15844,7 +15844,7 @@
         <v>57</v>
       </c>
       <c r="D533" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E533" t="s">
         <v>10</v>
@@ -15855,16 +15855,16 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B534" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C534" t="s">
+        <v>802</v>
+      </c>
+      <c r="D534" t="s">
         <v>803</v>
-      </c>
-      <c r="D534" t="s">
-        <v>804</v>
       </c>
       <c r="E534" t="s">
         <v>10</v>
@@ -15875,16 +15875,16 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B535" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C535" t="s">
+        <v>802</v>
+      </c>
+      <c r="D535" t="s">
         <v>803</v>
-      </c>
-      <c r="D535" t="s">
-        <v>804</v>
       </c>
       <c r="E535" t="s">
         <v>10</v>
@@ -15895,16 +15895,16 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B536" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C536" t="s">
+        <v>802</v>
+      </c>
+      <c r="D536" t="s">
         <v>803</v>
-      </c>
-      <c r="D536" t="s">
-        <v>804</v>
       </c>
       <c r="E536" t="s">
         <v>10</v>
@@ -15915,16 +15915,16 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B537" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C537" t="s">
+        <v>802</v>
+      </c>
+      <c r="D537" t="s">
         <v>803</v>
-      </c>
-      <c r="D537" t="s">
-        <v>804</v>
       </c>
       <c r="E537" t="s">
         <v>10</v>
@@ -15935,16 +15935,16 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B538" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C538" t="s">
+        <v>802</v>
+      </c>
+      <c r="D538" t="s">
         <v>803</v>
-      </c>
-      <c r="D538" t="s">
-        <v>804</v>
       </c>
       <c r="E538" t="s">
         <v>10</v>
@@ -15955,16 +15955,16 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B539" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C539" t="s">
+        <v>802</v>
+      </c>
+      <c r="D539" t="s">
         <v>803</v>
-      </c>
-      <c r="D539" t="s">
-        <v>804</v>
       </c>
       <c r="E539" t="s">
         <v>10</v>
@@ -15975,16 +15975,16 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C540" t="s">
         <v>1137</v>
       </c>
-      <c r="B540" t="s">
+      <c r="D540" t="s">
         <v>1138</v>
-      </c>
-      <c r="C540" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D540" t="s">
-        <v>1140</v>
       </c>
       <c r="E540" t="s">
         <v>10</v>
@@ -15995,16 +15995,16 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B541" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C541" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D541" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E541" t="s">
         <v>10</v>
@@ -16015,16 +16015,16 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B542" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C542" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D542" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E542" t="s">
         <v>10</v>
@@ -16035,16 +16035,16 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B543" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C543" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D543" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E543" t="s">
         <v>10</v>
@@ -16055,16 +16055,16 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B544" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C544" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D544" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E544" t="s">
         <v>10</v>
@@ -16075,16 +16075,16 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B545" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C545" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D545" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E545" t="s">
         <v>10</v>
@@ -16095,16 +16095,16 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B546" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C546" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D546" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E546" t="s">
         <v>10</v>
@@ -16115,19 +16115,19 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E547" t="s">
         <v>1153</v>
-      </c>
-      <c r="B547" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C547" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D547" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E547" t="s">
-        <v>1155</v>
       </c>
       <c r="F547" t="s">
         <v>11</v>
@@ -16135,16 +16135,16 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B548" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C548" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D548" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E548" t="s">
         <v>10</v>
@@ -16155,16 +16155,16 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B549" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C549" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D549" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E549" t="s">
         <v>10</v>
@@ -16175,16 +16175,16 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B550" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C550" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D550" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E550" t="s">
         <v>10</v>
@@ -16195,16 +16195,16 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B551" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C551" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D551" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E551" t="s">
         <v>10</v>
@@ -16215,16 +16215,16 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B552" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C552" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D552" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E552" t="s">
         <v>10</v>
@@ -16235,16 +16235,16 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B553" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C553" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D553" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E553" t="s">
         <v>10</v>
@@ -16255,16 +16255,16 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C554" t="s">
         <v>1168</v>
       </c>
-      <c r="B554" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C554" t="s">
-        <v>1170</v>
-      </c>
       <c r="D554" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E554" t="s">
         <v>10</v>
@@ -16275,16 +16275,16 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D555" t="s">
         <v>1171</v>
-      </c>
-      <c r="B555" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C555" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D555" t="s">
-        <v>1173</v>
       </c>
       <c r="E555" t="s">
         <v>10</v>
@@ -16295,16 +16295,16 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C556" t="s">
         <v>1174</v>
       </c>
-      <c r="B556" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C556" t="s">
-        <v>1176</v>
-      </c>
       <c r="D556" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E556" t="s">
         <v>10</v>
@@ -16315,10 +16315,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B557" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C557" t="s">
         <v>139</v>
@@ -16335,7 +16335,7 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B558" t="s">
         <v>258</v>
@@ -16355,16 +16355,16 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B559" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C559" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D559" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E559" t="s">
         <v>10</v>
@@ -16375,16 +16375,16 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B560" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C560" t="s">
         <v>57</v>
       </c>
       <c r="D560" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E560" t="s">
         <v>102</v>
@@ -16395,16 +16395,16 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B561" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C561" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D561" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E561" t="s">
         <v>10</v>
@@ -16415,10 +16415,10 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B562" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C562" t="s">
         <v>57</v>
@@ -16435,10 +16435,10 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B563" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C563" t="s">
         <v>57</v>
@@ -16455,10 +16455,10 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B564" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C564" t="s">
         <v>139</v>
@@ -16475,13 +16475,13 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B565" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C565" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D565" t="s">
         <v>140</v>
@@ -16495,13 +16495,13 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B566" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C566" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D566" t="s">
         <v>140</v>
@@ -16515,13 +16515,13 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B567" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C567" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D567" t="s">
         <v>140</v>
@@ -16535,10 +16535,10 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B568" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C568" t="s">
         <v>139</v>
@@ -16555,7 +16555,7 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B569" t="s">
         <v>132</v>
@@ -16575,10 +16575,10 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B570" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C570" t="s">
         <v>139</v>
@@ -16595,10 +16595,10 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B571" t="s">
         <v>1201</v>
-      </c>
-      <c r="B571" t="s">
-        <v>1203</v>
       </c>
       <c r="C571" t="s">
         <v>139</v>
@@ -16615,10 +16615,10 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B572" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C572" t="s">
         <v>139</v>
@@ -16635,10 +16635,10 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B573" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C573" t="s">
         <v>139</v>
@@ -16655,13 +16655,13 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B574" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C574" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D574" t="s">
         <v>140</v>
@@ -16675,16 +16675,16 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C575" t="s">
         <v>1210</v>
       </c>
-      <c r="B575" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C575" t="s">
-        <v>1212</v>
-      </c>
       <c r="D575" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E575" t="s">
         <v>10</v>
@@ -16695,16 +16695,16 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B576" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C576" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D576" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E576" t="s">
         <v>10</v>
@@ -16715,16 +16715,16 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B577" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C577" t="s">
         <v>57</v>
       </c>
       <c r="D577" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E577" t="s">
         <v>10</v>
@@ -16735,16 +16735,16 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C578" t="s">
         <v>1217</v>
       </c>
-      <c r="B578" t="s">
+      <c r="D578" t="s">
         <v>1218</v>
-      </c>
-      <c r="C578" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D578" t="s">
-        <v>1220</v>
       </c>
       <c r="E578" t="s">
         <v>47</v>
@@ -16755,16 +16755,16 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B579" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C579" t="s">
         <v>57</v>
       </c>
       <c r="D579" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E579" t="s">
         <v>10</v>
@@ -16775,16 +16775,16 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B580" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C580" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D580" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E580" t="s">
         <v>10</v>
@@ -16795,10 +16795,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B581" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C581" t="s">
         <v>139</v>
@@ -16815,10 +16815,10 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B582" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C582" t="s">
         <v>57</v>
@@ -16835,10 +16835,10 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B583" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C583" t="s">
         <v>57</v>
@@ -16855,13 +16855,13 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B584" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C584" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D584" t="s">
         <v>85</v>
@@ -16875,13 +16875,13 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B585" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C585" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D585" t="s">
         <v>140</v>
@@ -16895,13 +16895,13 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C586" t="s">
         <v>1235</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C586" t="s">
-        <v>1237</v>
       </c>
       <c r="D586" t="s">
         <v>85</v>
@@ -16915,16 +16915,16 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C587" t="s">
         <v>1238</v>
       </c>
-      <c r="B587" t="s">
+      <c r="D587" t="s">
         <v>1239</v>
-      </c>
-      <c r="C587" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D587" t="s">
-        <v>1241</v>
       </c>
       <c r="E587" t="s">
         <v>10</v>
@@ -16935,16 +16935,16 @@
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B588" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C588" t="s">
         <v>57</v>
       </c>
       <c r="D588" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E588" t="s">
         <v>10</v>
@@ -16955,10 +16955,10 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B589" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C589" t="s">
         <v>139</v>
@@ -16975,7 +16975,7 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B590" t="s">
         <v>54</v>
@@ -16995,16 +16995,16 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C591" t="s">
         <v>1247</v>
       </c>
-      <c r="B591" t="s">
+      <c r="D591" t="s">
         <v>1248</v>
-      </c>
-      <c r="C591" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D591" t="s">
-        <v>1250</v>
       </c>
       <c r="E591" t="s">
         <v>10</v>
@@ -17015,16 +17015,16 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B592" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C592" t="s">
         <v>14</v>
       </c>
       <c r="D592" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="E592" t="s">
         <v>10</v>
@@ -17035,16 +17035,16 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B593" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C593" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D593" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="E593" t="s">
         <v>10</v>
@@ -17055,16 +17055,16 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C594" t="s">
         <v>1255</v>
       </c>
-      <c r="B594" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C594" t="s">
-        <v>1257</v>
-      </c>
       <c r="D594" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E594" t="s">
         <v>10</v>
@@ -17075,16 +17075,16 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B595" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C595" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D595" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E595" t="s">
         <v>10</v>
@@ -17095,16 +17095,16 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C596" t="s">
         <v>1260</v>
       </c>
-      <c r="B596" t="s">
+      <c r="D596" t="s">
         <v>1261</v>
-      </c>
-      <c r="C596" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D596" t="s">
-        <v>1263</v>
       </c>
       <c r="E596" t="s">
         <v>10</v>
@@ -17115,16 +17115,16 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B597" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C597" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D597" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E597" t="s">
         <v>10</v>
@@ -17135,16 +17135,16 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B598" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C598" t="s">
         <v>57</v>
       </c>
       <c r="D598" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E598" t="s">
         <v>10</v>
@@ -17155,16 +17155,16 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B599" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C599" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D599" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E599" t="s">
         <v>10</v>
@@ -17175,16 +17175,16 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B600" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C600" t="s">
         <v>57</v>
       </c>
       <c r="D600" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E600" t="s">
         <v>47</v>
@@ -17195,16 +17195,16 @@
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B601" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C601" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D601" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E601" t="s">
         <v>10</v>
@@ -17215,16 +17215,16 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C602" t="s">
         <v>1274</v>
       </c>
-      <c r="B602" t="s">
+      <c r="D602" t="s">
         <v>1275</v>
-      </c>
-      <c r="C602" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D602" t="s">
-        <v>1277</v>
       </c>
       <c r="E602" t="s">
         <v>10</v>
@@ -17235,7 +17235,7 @@
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B603" t="s">
         <v>30</v>
@@ -17244,7 +17244,7 @@
         <v>57</v>
       </c>
       <c r="D603" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E603" t="s">
         <v>10</v>
@@ -17255,16 +17255,16 @@
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C604" t="s">
         <v>1279</v>
       </c>
-      <c r="B604" t="s">
+      <c r="D604" t="s">
         <v>1280</v>
-      </c>
-      <c r="C604" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D604" t="s">
-        <v>1282</v>
       </c>
       <c r="E604" t="s">
         <v>10</v>
@@ -17275,16 +17275,16 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B605" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C605" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D605" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E605" t="s">
         <v>10</v>
@@ -17295,16 +17295,16 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B606" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C606" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D606" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E606" t="s">
         <v>10</v>
@@ -17315,16 +17315,16 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B607" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C607" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D607" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E607" t="s">
         <v>10</v>
@@ -17335,16 +17335,16 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B608" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C608" t="s">
         <v>57</v>
       </c>
       <c r="D608" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E608" t="s">
         <v>10</v>
@@ -17355,16 +17355,16 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D609" t="s">
         <v>1291</v>
-      </c>
-      <c r="B609" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C609" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D609" t="s">
-        <v>1293</v>
       </c>
       <c r="E609" t="s">
         <v>10</v>
@@ -17375,16 +17375,16 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B610" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C610" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D610" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E610" t="s">
         <v>10</v>
@@ -17395,16 +17395,16 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C611" t="s">
         <v>1296</v>
       </c>
-      <c r="B611" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1298</v>
-      </c>
       <c r="D611" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E611" t="s">
         <v>10</v>
@@ -17415,16 +17415,16 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C612" t="s">
         <v>1299</v>
       </c>
-      <c r="B612" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C612" t="s">
-        <v>1301</v>
-      </c>
       <c r="D612" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="E612" t="s">
         <v>10</v>
@@ -17435,16 +17435,16 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B613" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C613" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D613" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E613" t="s">
         <v>10</v>
@@ -17455,16 +17455,16 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D614" t="s">
         <v>1304</v>
-      </c>
-      <c r="B614" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C614" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D614" t="s">
-        <v>1306</v>
       </c>
       <c r="E614" t="s">
         <v>10</v>
@@ -17475,16 +17475,16 @@
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B615" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C615" t="s">
         <v>57</v>
       </c>
       <c r="D615" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E615" t="s">
         <v>10</v>
@@ -17495,16 +17495,16 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B616" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C616" t="s">
         <v>57</v>
       </c>
       <c r="D616" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E616" t="s">
         <v>10</v>
@@ -17515,16 +17515,16 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B617" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C617" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D617" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E617" t="s">
         <v>10</v>
@@ -17535,16 +17535,16 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B618" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C618" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D618" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E618" t="s">
         <v>10</v>
@@ -17555,16 +17555,16 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B619" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C619" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D619" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E619" t="s">
         <v>10</v>
@@ -17575,16 +17575,16 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B620" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C620" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D620" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E620" t="s">
         <v>10</v>
@@ -17595,16 +17595,16 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D621" t="s">
         <v>1319</v>
-      </c>
-      <c r="B621" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C621" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D621" t="s">
-        <v>1321</v>
       </c>
       <c r="E621" t="s">
         <v>10</v>
@@ -17615,10 +17615,10 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B622" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C622" t="s">
         <v>57</v>
@@ -17635,16 +17635,16 @@
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B623" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C623" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D623" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E623" t="s">
         <v>10</v>
@@ -17655,10 +17655,10 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B624" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C624" t="s">
         <v>57</v>
@@ -17675,16 +17675,16 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B625" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C625" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D625" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E625" t="s">
         <v>10</v>
@@ -17695,16 +17695,16 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B626" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C626" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D626" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E626" t="s">
         <v>10</v>
@@ -17715,16 +17715,16 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B627" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C627" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D627" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E627" t="s">
         <v>10</v>
@@ -17735,16 +17735,16 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B628" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C628" t="s">
         <v>57</v>
       </c>
       <c r="D628" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E628" t="s">
         <v>10</v>
@@ -17755,16 +17755,16 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B629" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C629" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D629" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E629" t="s">
         <v>10</v>
@@ -17775,16 +17775,16 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B630" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C630" t="s">
         <v>57</v>
       </c>
       <c r="D630" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E630" t="s">
         <v>10</v>
@@ -17795,16 +17795,16 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C631" t="s">
+        <v>928</v>
+      </c>
+      <c r="D631" t="s">
         <v>1340</v>
-      </c>
-      <c r="B631" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C631" t="s">
-        <v>930</v>
-      </c>
-      <c r="D631" t="s">
-        <v>1342</v>
       </c>
       <c r="E631" t="s">
         <v>10</v>
@@ -17815,16 +17815,16 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C632" t="s">
         <v>1343</v>
       </c>
-      <c r="B632" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C632" t="s">
-        <v>1345</v>
-      </c>
       <c r="D632" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="E632" t="s">
         <v>10</v>
@@ -17835,16 +17835,16 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B633" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C633" t="s">
         <v>57</v>
       </c>
       <c r="D633" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E633" t="s">
         <v>10</v>
@@ -17855,16 +17855,16 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B634" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C634" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D634" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E634" t="s">
         <v>10</v>
@@ -17875,16 +17875,16 @@
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B635" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C635" t="s">
         <v>57</v>
       </c>
       <c r="D635" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E635" t="s">
         <v>10</v>
@@ -17895,16 +17895,16 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B636" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C636" t="s">
         <v>57</v>
       </c>
       <c r="D636" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E636" t="s">
         <v>10</v>
@@ -17915,16 +17915,16 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B637" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C637" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D637" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E637" t="s">
         <v>10</v>
@@ -17935,16 +17935,16 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B638" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C638" t="s">
         <v>57</v>
       </c>
       <c r="D638" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E638" t="s">
         <v>10</v>
@@ -17955,16 +17955,16 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B639" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C639" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D639" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E639" t="s">
         <v>10</v>
@@ -17975,16 +17975,16 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B640" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C640" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D640" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E640" t="s">
         <v>10</v>
@@ -17995,10 +17995,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B641" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C641" t="s">
         <v>57</v>
@@ -18015,10 +18015,10 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B642" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C642" t="s">
         <v>749</v>
@@ -18035,16 +18035,16 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B643" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C643" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D643" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E643" t="s">
         <v>10</v>
@@ -18055,16 +18055,16 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C644" t="s">
         <v>1369</v>
       </c>
-      <c r="B644" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C644" t="s">
-        <v>1371</v>
-      </c>
       <c r="D644" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E644" t="s">
         <v>47</v>
@@ -18075,16 +18075,16 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B645" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C645" t="s">
         <v>362</v>
       </c>
       <c r="D645" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E645" t="s">
         <v>10</v>
@@ -18095,16 +18095,16 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="B646" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C646" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="D646" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E646" t="s">
         <v>10</v>
@@ -18115,16 +18115,16 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="B647" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C647" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D647" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E647" t="s">
         <v>10</v>
@@ -18135,16 +18135,16 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B648" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C648" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D648" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E648" t="s">
         <v>10</v>
@@ -18155,16 +18155,16 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B649" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C649" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D649" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E649" t="s">
         <v>10</v>
@@ -18175,16 +18175,16 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B650" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C650" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D650" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E650" t="s">
         <v>10</v>
@@ -18195,16 +18195,16 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B651" t="s">
         <v>258</v>
       </c>
       <c r="C651" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D651" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E651" t="s">
         <v>10</v>
@@ -18215,16 +18215,16 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C652" t="s">
         <v>1385</v>
       </c>
-      <c r="B652" t="s">
+      <c r="D652" t="s">
         <v>1386</v>
-      </c>
-      <c r="C652" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D652" t="s">
-        <v>1388</v>
       </c>
       <c r="E652" t="s">
         <v>10</v>
@@ -18235,16 +18235,16 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C653" t="s">
         <v>1385</v>
       </c>
-      <c r="B653" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C653" t="s">
-        <v>1387</v>
-      </c>
       <c r="D653" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E653" t="s">
         <v>10</v>
@@ -18255,16 +18255,16 @@
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B654" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C654" t="s">
         <v>57</v>
       </c>
       <c r="D654" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E654" t="s">
         <v>10</v>
@@ -18275,16 +18275,16 @@
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B655" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C655" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D655" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E655" t="s">
         <v>10</v>
@@ -18295,16 +18295,16 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B656" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C656" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="D656" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E656" t="s">
         <v>10</v>
@@ -18315,16 +18315,16 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B657" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C657" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="D657" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E657" t="s">
         <v>10</v>
@@ -18335,16 +18335,16 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B658" t="s">
         <v>1396</v>
       </c>
-      <c r="B658" t="s">
-        <v>1398</v>
-      </c>
       <c r="C658" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="D658" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E658" t="s">
         <v>10</v>
@@ -18355,16 +18355,16 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B659" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C659" t="s">
         <v>57</v>
       </c>
       <c r="D659" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E659" t="s">
         <v>10</v>
@@ -18375,16 +18375,16 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B660" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C660" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="D660" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E660" t="s">
         <v>10</v>
@@ -18395,16 +18395,16 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B661" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C661" t="s">
         <v>57</v>
       </c>
       <c r="D661" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E661" t="s">
         <v>10</v>
@@ -18415,16 +18415,16 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B662" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C662" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D662" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E662" t="s">
         <v>10</v>
@@ -18435,16 +18435,16 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B663" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C663" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="D663" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E663" t="s">
         <v>10</v>
@@ -18455,16 +18455,16 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B664" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C664" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D664" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E664" t="s">
         <v>10</v>
@@ -18475,7 +18475,7 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B665" s="1" t="s">
         <v>364</v>
@@ -18495,10 +18495,10 @@
     </row>
     <row r="666" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C666" t="s">
         <v>704</v>
@@ -18515,7 +18515,7 @@
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B667" s="1" t="s">
         <v>144</v>
@@ -18535,10 +18535,10 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C668" t="s">
         <v>14</v>
@@ -18555,10 +18555,10 @@
     </row>
     <row r="669" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C669" t="s">
         <v>14</v>
@@ -18575,10 +18575,10 @@
     </row>
     <row r="670" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C670" t="s">
         <v>239</v>
@@ -18595,16 +18595,16 @@
     </row>
     <row r="671" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C671" t="s">
         <v>14</v>
       </c>
       <c r="D671" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E671" t="s">
         <v>10</v>
@@ -18615,16 +18615,16 @@
     </row>
     <row r="672" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C672" t="s">
         <v>1422</v>
       </c>
-      <c r="B672" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C672" t="s">
-        <v>1424</v>
-      </c>
       <c r="D672" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E672" t="s">
         <v>10</v>
@@ -18635,16 +18635,16 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C673" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D673" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E673" t="s">
         <v>10</v>
@@ -18655,16 +18655,16 @@
     </row>
     <row r="674" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="C674" t="s">
         <v>14</v>
       </c>
       <c r="D674" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E674" t="s">
         <v>10</v>
@@ -18675,16 +18675,16 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C675" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D675" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E675" t="s">
         <v>478</v>
@@ -18695,16 +18695,16 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="C676" t="s">
         <v>14</v>
       </c>
       <c r="D676" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E676" t="s">
         <v>10</v>
@@ -18715,16 +18715,16 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C677" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D677" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E677" t="s">
         <v>10</v>
@@ -18735,16 +18735,16 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C678" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D678" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E678" t="s">
         <v>10</v>
@@ -18755,16 +18755,16 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B679" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="B679" s="1" t="s">
-        <v>1437</v>
-      </c>
       <c r="C679" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D679" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E679" t="s">
         <v>10</v>
@@ -18775,16 +18775,16 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C680" t="s">
         <v>14</v>
       </c>
       <c r="D680" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E680" t="s">
         <v>10</v>
@@ -18795,16 +18795,16 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C681" t="s">
         <v>1440</v>
       </c>
-      <c r="B681" s="1" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C681" t="s">
-        <v>1442</v>
-      </c>
       <c r="D681" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E681" t="s">
         <v>10</v>
@@ -18815,16 +18815,16 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C682" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D682" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E682" t="s">
         <v>10</v>
@@ -18835,16 +18835,16 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C683" t="s">
         <v>1445</v>
       </c>
-      <c r="B683" s="1" t="s">
+      <c r="D683" t="s">
         <v>1446</v>
-      </c>
-      <c r="C683" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D683" t="s">
-        <v>1448</v>
       </c>
       <c r="E683" t="s">
         <v>10</v>
@@ -18855,16 +18855,16 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="C684" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D684" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E684" t="s">
         <v>10</v>
@@ -18875,16 +18875,16 @@
     </row>
     <row r="685" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="C685" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D685" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E685" t="s">
         <v>10</v>
@@ -18895,16 +18895,16 @@
     </row>
     <row r="686" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="C686" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D686" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E686" t="s">
         <v>10</v>
@@ -18915,16 +18915,16 @@
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C687" t="s">
         <v>14</v>
       </c>
       <c r="D687" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="E687" t="s">
         <v>10</v>
@@ -18935,16 +18935,16 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="C688" t="s">
         <v>14</v>
       </c>
       <c r="D688" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="E688" t="s">
         <v>10</v>
@@ -18955,16 +18955,16 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="C689" t="s">
         <v>14</v>
       </c>
       <c r="D689" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E689" t="s">
         <v>10</v>
@@ -18975,16 +18975,16 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="C690" t="s">
         <v>14</v>
       </c>
       <c r="D690" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E690" t="s">
         <v>10</v>
@@ -18995,16 +18995,16 @@
     </row>
     <row r="691" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C691" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D691" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E691" t="s">
         <v>10</v>
@@ -19015,16 +19015,16 @@
     </row>
     <row r="692" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B692" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="B692" s="1" t="s">
-        <v>1466</v>
-      </c>
       <c r="C692" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D692" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E692" t="s">
         <v>10</v>
@@ -19035,16 +19035,16 @@
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="C693" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D693" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E693" t="s">
         <v>10</v>
@@ -19055,16 +19055,16 @@
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="C694" t="s">
         <v>14</v>
       </c>
       <c r="D694" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E694" t="s">
         <v>47</v>
@@ -19075,16 +19075,16 @@
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C695" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D695" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E695" t="s">
         <v>10</v>
@@ -19095,16 +19095,16 @@
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>1474</v>
+        <v>1607</v>
       </c>
       <c r="C696" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D696" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E696" t="s">
         <v>10</v>
@@ -19115,16 +19115,16 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="C697" t="s">
         <v>14</v>
       </c>
       <c r="D697" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E697" t="s">
         <v>10</v>
@@ -19135,16 +19135,16 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C698" t="s">
+        <v>802</v>
+      </c>
+      <c r="D698" t="s">
         <v>803</v>
-      </c>
-      <c r="D698" t="s">
-        <v>804</v>
       </c>
       <c r="E698" t="s">
         <v>10</v>
@@ -19155,16 +19155,16 @@
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="C699" t="s">
+        <v>802</v>
+      </c>
+      <c r="D699" t="s">
         <v>803</v>
-      </c>
-      <c r="D699" t="s">
-        <v>804</v>
       </c>
       <c r="E699" t="s">
         <v>10</v>
@@ -19175,16 +19175,16 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="C700" t="s">
+        <v>802</v>
+      </c>
+      <c r="D700" t="s">
         <v>803</v>
-      </c>
-      <c r="D700" t="s">
-        <v>804</v>
       </c>
       <c r="E700" t="s">
         <v>10</v>
@@ -19195,16 +19195,16 @@
     </row>
     <row r="701" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="C701" t="s">
         <v>14</v>
       </c>
       <c r="D701" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E701" t="s">
         <v>10</v>
@@ -19215,16 +19215,16 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="C702" t="s">
         <v>14</v>
       </c>
       <c r="D702" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="E702" t="s">
         <v>10</v>
@@ -19235,16 +19235,16 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="C703" t="s">
         <v>14</v>
       </c>
       <c r="D703" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E703" t="s">
         <v>10</v>
@@ -19255,16 +19255,16 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="C704" t="s">
         <v>14</v>
       </c>
       <c r="D704" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="E704" t="s">
         <v>10</v>
@@ -19275,16 +19275,16 @@
     </row>
     <row r="705" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="C705" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D705" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E705" t="s">
         <v>10</v>
@@ -19295,16 +19295,16 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C706" t="s">
         <v>14</v>
       </c>
       <c r="D706" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E706" t="s">
         <v>10</v>
@@ -19315,16 +19315,16 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="C707" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D707" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E707" t="s">
         <v>10</v>
@@ -19335,16 +19335,16 @@
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="C708" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="D708" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E708" t="s">
         <v>10</v>
@@ -19355,16 +19355,16 @@
     </row>
     <row r="709" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="C709" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D709" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E709" t="s">
         <v>10</v>
@@ -19375,16 +19375,16 @@
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="C710" t="s">
         <v>14</v>
       </c>
       <c r="D710" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E710" t="s">
         <v>10</v>
@@ -19395,16 +19395,16 @@
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="C711" t="s">
         <v>14</v>
       </c>
       <c r="D711" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E711" t="s">
         <v>10</v>
@@ -19415,16 +19415,16 @@
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="C712" t="s">
         <v>14</v>
       </c>
       <c r="D712" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E712" t="s">
         <v>10</v>
@@ -19435,16 +19435,16 @@
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="C713" t="s">
         <v>14</v>
       </c>
       <c r="D713" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E713" t="s">
         <v>10</v>
@@ -19455,16 +19455,16 @@
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="C714" t="s">
         <v>14</v>
       </c>
       <c r="D714" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E714" t="s">
         <v>10</v>
@@ -19475,16 +19475,16 @@
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="C715" t="s">
         <v>14</v>
       </c>
       <c r="D715" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E715" t="s">
         <v>10</v>
@@ -19495,16 +19495,16 @@
     </row>
     <row r="716" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="C716" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D716" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E716" t="s">
         <v>47</v>
@@ -19515,16 +19515,16 @@
     </row>
     <row r="717" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="C717" t="s">
         <v>14</v>
       </c>
       <c r="D717" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E717" t="s">
         <v>10</v>
@@ -19535,16 +19535,16 @@
     </row>
     <row r="718" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="C718" t="s">
         <v>14</v>
       </c>
       <c r="D718" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E718" t="s">
         <v>10</v>
@@ -19555,16 +19555,16 @@
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="C719" t="s">
         <v>14</v>
       </c>
       <c r="D719" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E719" t="s">
         <v>10</v>
@@ -19575,16 +19575,16 @@
     </row>
     <row r="720" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="C720" t="s">
         <v>14</v>
       </c>
       <c r="D720" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E720" t="s">
         <v>10</v>
@@ -19595,16 +19595,16 @@
     </row>
     <row r="721" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="C721" t="s">
         <v>14</v>
       </c>
       <c r="D721" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E721" t="s">
         <v>10</v>
@@ -19615,16 +19615,16 @@
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="C722" t="s">
         <v>14</v>
       </c>
       <c r="D722" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E722" t="s">
         <v>10</v>
@@ -19635,16 +19635,16 @@
     </row>
     <row r="723" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C723" t="s">
         <v>14</v>
       </c>
       <c r="D723" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E723" t="s">
         <v>10</v>
@@ -19655,10 +19655,10 @@
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="C724" t="s">
         <v>84</v>
@@ -19675,10 +19675,10 @@
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="C725" t="s">
         <v>400</v>
@@ -19695,10 +19695,10 @@
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="C726" t="s">
         <v>14</v>
@@ -19715,10 +19715,10 @@
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="C727" t="s">
         <v>14</v>
@@ -19735,7 +19735,7 @@
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>258</v>
@@ -19755,16 +19755,16 @@
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="C729" t="s">
         <v>14</v>
       </c>
       <c r="D729" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E729" t="s">
         <v>10</v>
@@ -19775,16 +19775,16 @@
     </row>
     <row r="730" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C730" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D730" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E730" t="s">
         <v>10</v>
@@ -19795,16 +19795,16 @@
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="C731" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D731" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E731" t="s">
         <v>10</v>
@@ -19815,16 +19815,16 @@
     </row>
     <row r="732" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="C732" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D732" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E732" t="s">
         <v>10</v>
@@ -19835,16 +19835,16 @@
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="C733" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D733" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E733" t="s">
         <v>10</v>
@@ -19855,16 +19855,16 @@
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="C734" t="s">
         <v>14</v>
       </c>
       <c r="D734" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E734" t="s">
         <v>10</v>
@@ -19875,16 +19875,16 @@
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C735" t="s">
         <v>14</v>
       </c>
       <c r="D735" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E735" t="s">
         <v>10</v>
@@ -19895,16 +19895,16 @@
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="C736" t="s">
         <v>14</v>
       </c>
       <c r="D736" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E736" t="s">
         <v>10</v>
@@ -19915,16 +19915,16 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="C737" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D737" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E737" t="s">
         <v>10</v>
@@ -19935,16 +19935,16 @@
     </row>
     <row r="738" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="C738" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D738" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E738" t="s">
         <v>10</v>
@@ -19955,16 +19955,16 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="C739" t="s">
         <v>14</v>
       </c>
       <c r="D739" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E739" t="s">
         <v>10</v>
@@ -19975,16 +19975,16 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="C740" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D740" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E740" t="s">
         <v>10</v>
@@ -19995,16 +19995,16 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="C741" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D741" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E741" t="s">
         <v>10</v>
@@ -20015,16 +20015,16 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="C742" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D742" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E742" t="s">
         <v>47</v>
@@ -20035,16 +20035,16 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="C743" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D743" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E743" t="s">
         <v>10</v>
@@ -20055,16 +20055,16 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="C744" t="s">
         <v>14</v>
       </c>
       <c r="D744" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E744" t="s">
         <v>10</v>
@@ -20075,16 +20075,16 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="C745" t="s">
         <v>14</v>
       </c>
       <c r="D745" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E745" t="s">
         <v>10</v>
@@ -20095,16 +20095,16 @@
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="C746" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D746" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E746" t="s">
         <v>47</v>
@@ -20115,16 +20115,16 @@
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="C747" t="s">
         <v>14</v>
       </c>
       <c r="D747" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E747" t="s">
         <v>10</v>
@@ -20135,16 +20135,16 @@
     </row>
     <row r="748" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="C748" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D748" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E748" t="s">
         <v>10</v>
@@ -20155,16 +20155,16 @@
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="C749" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D749" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E749" t="s">
         <v>102</v>
@@ -20175,16 +20175,16 @@
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="C750" t="s">
         <v>14</v>
       </c>
       <c r="D750" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E750" t="s">
         <v>10</v>
@@ -20195,10 +20195,10 @@
     </row>
     <row r="751" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="C751" t="s">
         <v>14</v>
@@ -20215,10 +20215,10 @@
     </row>
     <row r="752" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="C752" t="s">
         <v>400</v>
@@ -20235,10 +20235,10 @@
     </row>
     <row r="753" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="C753" t="s">
         <v>14</v>
@@ -20255,10 +20255,10 @@
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="C754" t="s">
         <v>14</v>
@@ -20275,10 +20275,10 @@
     </row>
     <row r="755" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="C755" t="s">
         <v>400</v>
@@ -20295,10 +20295,10 @@
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="C756" t="s">
         <v>14</v>
@@ -20315,10 +20315,10 @@
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="C757" t="s">
         <v>400</v>
@@ -20335,10 +20335,10 @@
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="C758" t="s">
         <v>14</v>
@@ -22243,32 +22243,32 @@
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.35">
@@ -22293,137 +22293,137 @@
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.35">
@@ -22438,27 +22438,27 @@
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.35">
@@ -22488,7 +22488,7 @@
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.35">
@@ -22633,17 +22633,17 @@
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.35">
@@ -22708,152 +22708,152 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.35">
@@ -23033,132 +23033,132 @@
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.35">
@@ -23173,17 +23173,17 @@
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.35">
@@ -23253,32 +23253,32 @@
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.35">
@@ -23313,12 +23313,12 @@
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.35">
@@ -23333,157 +23333,157 @@
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.35">
@@ -23493,7 +23493,7 @@
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.35">
@@ -23503,82 +23503,82 @@
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.35">
@@ -23593,112 +23593,112 @@
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.35">
@@ -23733,267 +23733,267 @@
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.35">
@@ -24023,112 +24023,112 @@
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.35">
